--- a/biology/Écologie/Landes_de_Bagaron/Landes_de_Bagaron.xlsx
+++ b/biology/Écologie/Landes_de_Bagaron/Landes_de_Bagaron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Landes de Bagaron[1], situées sur la commune de Pléchâtel en Bretagne, à proximité du château et des forges du Plessis-Bardoult, représentent un réservoir de biodiversité.
-Il s'agit d'une zone naturelle d'intérêt écologique faunistique et floristique (ZNIEFF)[2].
+Les Landes de Bagaron, situées sur la commune de Pléchâtel en Bretagne, à proximité du château et des forges du Plessis-Bardoult, représentent un réservoir de biodiversité.
+Il s'agit d'une zone naturelle d'intérêt écologique faunistique et floristique (ZNIEFF).
 Par extension, les Landes de Bagaron, désignent une zone géographique plus étendue que le réservoir de biodiversité qui contient le Chêne de Breslon au tronc de six mètres de circonférence. Ce  chêne pédonculé   rouvre de 27 mètres de hauteur, aurait été planté en 1598 par le roi de France Henri IV durant son passage à Bain-de-Bretagne revenant de la signature de l’Édit de Nantes.
-Historiquement, les Landes de Bagaron ont été à la croisée de deux voies romaines : Nantes-Rennes et Angers-Carhaix qui traversait la Vilaine au Pont-Neuf. A l'extrémité des Landes de Bagaron, aux environs du pont romain du Port-Neuf, en l'an 578, Waroch, roi breton, ayant refusé de payer le tribut à Chilpéric, roi de France, est attaqué par une armée de 20 000 francs[3]. Waroch gagne, demande la paix et obtient Vannes moyennant le versement d'un tribut annuel[4].
+Historiquement, les Landes de Bagaron ont été à la croisée de deux voies romaines : Nantes-Rennes et Angers-Carhaix qui traversait la Vilaine au Pont-Neuf. A l'extrémité des Landes de Bagaron, aux environs du pont romain du Port-Neuf, en l'an 578, Waroch, roi breton, ayant refusé de payer le tribut à Chilpéric, roi de France, est attaqué par une armée de 20 000 francs. Waroch gagne, demande la paix et obtient Vannes moyennant le versement d'un tribut annuel.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux biotopes sont : 
 Landes humides à Molinia caerulea,
@@ -551,7 +565,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La végétation se répartit dans les groupes : 
 Phanérogames, Ptéridophytes, Bryophytes, Angiosperme et Bryidae.
@@ -590,7 +606,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux espèces d'oiseaux à statut réglementé y sont représentés : Rossignol philomèle et Fauvette grisette
 </t>
